--- a/請求書創造太郎.xlsx
+++ b/請求書創造太郎.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7C0C2C77-29A8-436B-B92A-80FAE957CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{595C8B8A-6608-4AFD-8C8C-6256C1CDDD59}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="9360" yWindow="216" windowWidth="13524" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書元" sheetId="1" r:id="rId1"/>
     <sheet name="請求書201201" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">請求書201201!$A$1:$I$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -216,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
@@ -270,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1029,6 +1033,69 @@
       </left>
       <right/>
       <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -1038,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,6 +1197,8 @@
     <xf numFmtId="5" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,8 +1220,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,16 +1246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,6 +1274,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1225,11 +1289,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1533,11 +1630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1552,39 +1649,39 @@
       <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
@@ -1616,16 +1713,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:27" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1635,14 +1732,14 @@
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="53"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
@@ -1653,7 +1750,7 @@
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="38"/>
       <c r="C19" s="39"/>
       <c r="D19" s="40"/>
@@ -1664,10 +1761,10 @@
       <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="66"/>
@@ -1675,10 +1772,10 @@
       <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -1686,8 +1783,8 @@
       <c r="I21" s="61"/>
     </row>
     <row r="22" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="26"/>
@@ -1697,7 +1794,7 @@
       <c r="I22" s="63"/>
     </row>
     <row r="23" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
       <c r="D23" s="31"/>
@@ -1708,7 +1805,7 @@
       <c r="I23" s="61"/>
     </row>
     <row r="24" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
       <c r="D24" s="34"/>
@@ -1719,47 +1816,47 @@
       <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="60"/>
       <c r="I25" s="61"/>
     </row>
-    <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88"/>
+    <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="99"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="74"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="70"/>
       <c r="I26" s="63"/>
     </row>
-    <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
+    <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="100"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="1:27" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="11"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1769,65 +1866,65 @@
       <c r="F29" s="4"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="31" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-    </row>
-    <row r="32" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+    </row>
+    <row r="32" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
     </row>
     <row r="33" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -1836,31 +1933,31 @@
       <c r="B33" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
     </row>
     <row r="34" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1896,22 +1993,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B33:AA33"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B33:AA33"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B31:AA31"/>
     <mergeCell ref="C32:Y32"/>
     <mergeCell ref="H26:I27"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F24:F25"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="H20:I21"/>
     <mergeCell ref="H22:I23"/>
@@ -1944,19 +2041,19 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="13"/>
     <col min="2" max="2" width="8.77734375" style="13" customWidth="1"/>
@@ -1971,45 +2068,45 @@
       <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="41">
+      <c r="H1" s="43">
         <v>44196</v>
       </c>
-      <c r="I1" s="42"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="45">
         <v>201201</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" s="13" t="s">
@@ -2041,16 +2138,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:27" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
@@ -2060,14 +2157,14 @@
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="53"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68">
+      <c r="A18" s="87">
         <v>200702</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -2088,7 +2185,7 @@
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="38"/>
       <c r="C19" s="39"/>
       <c r="D19" s="40"/>
@@ -2099,14 +2196,14 @@
       <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70">
+      <c r="A20" s="89">
         <v>200901</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="28">
         <v>1</v>
       </c>
@@ -2122,12 +2219,12 @@
       <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="80" t="s">
+      <c r="A21" s="90"/>
+      <c r="B21" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -2135,8 +2232,8 @@
       <c r="I21" s="61"/>
     </row>
     <row r="22" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="26"/>
@@ -2148,7 +2245,7 @@
       <c r="I22" s="63"/>
     </row>
     <row r="23" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="29" t="s">
         <v>25</v>
       </c>
@@ -2161,7 +2258,7 @@
       <c r="I23" s="61"/>
     </row>
     <row r="24" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="32" t="s">
         <v>26</v>
       </c>
@@ -2174,10 +2271,10 @@
       <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
@@ -2185,36 +2282,36 @@
       <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="74"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="70"/>
       <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="1:27" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="11">
         <f>SUM(G18:G27)</f>
         <v>234300</v>
@@ -2227,65 +2324,65 @@
       <c r="F29" s="4"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="31" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-    </row>
-    <row r="32" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+    </row>
+    <row r="32" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
     </row>
     <row r="33" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -2294,31 +2391,31 @@
       <c r="B33" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
     </row>
     <row r="34" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,6 +2500,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>